--- a/Excels/DRC.xlsx
+++ b/Excels/DRC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3386,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2390932</v>
+        <v>2394650</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>137</v>
@@ -3740,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Excels/DRC.xlsx
+++ b/Excels/DRC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3740,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4197,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4638,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excels/DRC.xlsx
+++ b/Excels/DRC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="937">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2826,6 +2826,33 @@
   </si>
   <si>
     <t>State name10</t>
+  </si>
+  <si>
+    <t>Issue Field 7 - Label</t>
+  </si>
+  <si>
+    <t>Field 7 Type</t>
+  </si>
+  <si>
+    <t>Workgroup 2</t>
+  </si>
+  <si>
+    <t>SLA2 ( Hrs : Mins)</t>
+  </si>
+  <si>
+    <t>Workgroup 3</t>
+  </si>
+  <si>
+    <t>SLA3 ( Hrs : Mins)</t>
+  </si>
+  <si>
+    <t>Workgroup 4</t>
+  </si>
+  <si>
+    <t>SLA4 ( Hrs : Mins)</t>
+  </si>
+  <si>
+    <t>Total Committed SLA</t>
   </si>
 </sst>
 </file>
@@ -2943,7 +2970,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2964,17 +2991,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3069,17 +3085,17 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3095,15 +3111,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3111,6 +3126,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3718,7 +3735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3767,16 +3784,16 @@
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="31" customWidth="1"/>
-    <col min="11" max="11" width="12" style="31" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="30" customWidth="1"/>
+    <col min="11" max="11" width="12" style="30" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="30" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3790,34 +3807,34 @@
       <c r="C1" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>889</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>891</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>892</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>893</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>894</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>895</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>896</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>897</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>898</v>
       </c>
     </row>
@@ -3831,22 +3848,22 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>902</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>904</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>905</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>906</v>
       </c>
     </row>
@@ -3923,45 +3940,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="33" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="33"/>
-    <col min="3" max="3" width="15.85546875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="33" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="22" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="32"/>
+    <col min="3" max="3" width="15.85546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>917</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>918</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>919</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>920</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>921</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>922</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>923</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>924</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>926</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>927</v>
       </c>
     </row>
@@ -3969,64 +3986,64 @@
       <c r="A2" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4319,15 +4336,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4397,23 +4414,53 @@
       <c r="W1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" t="s">
+        <v>928</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>929</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AC1" s="34" t="s">
+        <v>930</v>
+      </c>
+      <c r="AD1" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>932</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>933</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>934</v>
+      </c>
+      <c r="AH1" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="AI1" s="35" t="s">
+        <v>936</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AK1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AL1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>197</v>
       </c>
@@ -4456,32 +4503,36 @@
       <c r="N2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="AA2" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="Y2" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="22" t="s">
+      <c r="AB2" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI2">
+        <f>SUM(AB2,AD2,AF2,AH2)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AK2" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AL2" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>197</v>
       </c>
@@ -4524,32 +4575,36 @@
       <c r="N3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="24" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="AA3" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y3" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="24" t="s">
+      <c r="AB3" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI6" si="0">SUM(AB3,AD3,AF3,AH3)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AK3" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AL3" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>204</v>
       </c>
@@ -4592,32 +4647,36 @@
       <c r="N4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="22" t="s">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="AA4" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y4" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="22" t="s">
+      <c r="AB4" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AK4" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AL4" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>197</v>
       </c>
@@ -4660,32 +4719,36 @@
       <c r="N5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="24" t="s">
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="AA5" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="Y5" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z5" s="24" t="s">
+      <c r="AB5" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AA5" s="29" t="s">
+      <c r="AK5" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AL5" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>197</v>
       </c>
@@ -4728,28 +4791,32 @@
       <c r="N6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="22" t="s">
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="AA6" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y6" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z6" s="22" t="s">
+      <c r="AB6" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ6" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA6" s="28" t="s">
+      <c r="AK6" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AL6" t="s">
         <v>874</v>
       </c>
     </row>
@@ -4760,10 +4827,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AL111"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG110" sqref="AG110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4777,7 +4844,7 @@
     <col min="12" max="12" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4847,23 +4914,53 @@
       <c r="W1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" t="s">
+        <v>928</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>929</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AC1" s="34" t="s">
+        <v>930</v>
+      </c>
+      <c r="AD1" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>932</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>933</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>934</v>
+      </c>
+      <c r="AH1" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="AI1" s="35" t="s">
+        <v>936</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AK1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AL1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>154</v>
       </c>
@@ -4879,14 +4976,18 @@
       <c r="E2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="AI2">
+        <f>SUM(AB2,AD2,AF2,AH2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>154</v>
       </c>
@@ -4902,14 +5003,18 @@
       <c r="E3" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI66" si="0">SUM(AB3,AD3,AF3,AH3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>154</v>
       </c>
@@ -4925,14 +5030,18 @@
       <c r="E4" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>154</v>
       </c>
@@ -4948,14 +5057,18 @@
       <c r="E5" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>154</v>
       </c>
@@ -4971,14 +5084,18 @@
       <c r="E6" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>154</v>
       </c>
@@ -4994,14 +5111,18 @@
       <c r="E7" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>154</v>
       </c>
@@ -5017,14 +5138,18 @@
       <c r="E8" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>154</v>
       </c>
@@ -5040,14 +5165,18 @@
       <c r="E9" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="AI9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>154</v>
       </c>
@@ -5063,14 +5192,18 @@
       <c r="E10" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="AI10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>154</v>
       </c>
@@ -5086,14 +5219,18 @@
       <c r="E11" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="AI11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>154</v>
       </c>
@@ -5109,14 +5246,18 @@
       <c r="E12" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="AI12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>154</v>
       </c>
@@ -5132,14 +5273,18 @@
       <c r="E13" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="AI13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>154</v>
       </c>
@@ -5155,14 +5300,18 @@
       <c r="E14" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="AI14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>154</v>
       </c>
@@ -5178,14 +5327,18 @@
       <c r="E15" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="AI15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>197</v>
       </c>
@@ -5228,29 +5381,33 @@
       <c r="N16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="22" t="s">
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="AA16" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="Y16" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z16" s="22" t="s">
+      <c r="AB16" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ16" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="AA16" s="28" t="s">
+      <c r="AK16" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>197</v>
       </c>
@@ -5293,29 +5450,33 @@
       <c r="N17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="24" t="s">
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="AA17" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y17" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z17" s="24" t="s">
+      <c r="AB17" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ17" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA17" s="29" t="s">
+      <c r="AK17" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>204</v>
       </c>
@@ -5358,29 +5519,33 @@
       <c r="N18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="22" t="s">
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="AA18" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y18" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z18" s="22" t="s">
+      <c r="AB18" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ18" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA18" s="28" t="s">
+      <c r="AK18" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>197</v>
       </c>
@@ -5423,29 +5588,33 @@
       <c r="N19" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="24" t="s">
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="AA19" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="Y19" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z19" s="24" t="s">
+      <c r="AB19" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ19" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AA19" s="29" t="s">
+      <c r="AK19" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>197</v>
       </c>
@@ -5488,29 +5657,33 @@
       <c r="N20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="22" t="s">
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="AA20" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y20" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z20" s="22" t="s">
+      <c r="AB20" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ20" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA20" s="28" t="s">
+      <c r="AK20" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>204</v>
       </c>
@@ -5553,29 +5726,33 @@
       <c r="N21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="24" t="s">
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="AA21" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y21" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z21" s="24" t="s">
+      <c r="AB21" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ21" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA21" s="29" t="s">
+      <c r="AK21" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>197</v>
       </c>
@@ -5618,29 +5795,33 @@
       <c r="N22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="22" t="s">
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="AA22" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y22" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z22" s="22" t="s">
+      <c r="AB22" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ22" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA22" s="28" t="s">
+      <c r="AK22" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>197</v>
       </c>
@@ -5683,29 +5864,33 @@
       <c r="N23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="24" t="s">
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="AA23" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y23" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z23" s="24" t="s">
+      <c r="AB23" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ23" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA23" s="29" t="s">
+      <c r="AK23" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>204</v>
       </c>
@@ -5748,29 +5933,33 @@
       <c r="N24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="22" t="s">
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="AA24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y24" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z24" s="22" t="s">
+      <c r="AB24" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ24" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA24" s="28" t="s">
+      <c r="AK24" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>197</v>
       </c>
@@ -5813,29 +6002,33 @@
       <c r="N25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="24" t="s">
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="AA25" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y25" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z25" s="24" t="s">
+      <c r="AB25" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ25" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA25" s="29" t="s">
+      <c r="AK25" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>197</v>
       </c>
@@ -5878,29 +6071,33 @@
       <c r="N26" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="22" t="s">
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="AA26" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y26" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z26" s="22" t="s">
+      <c r="AB26" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ26" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA26" s="28" t="s">
+      <c r="AK26" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>204</v>
       </c>
@@ -5943,29 +6140,33 @@
       <c r="N27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="24" t="s">
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="AA27" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y27" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z27" s="24" t="s">
+      <c r="AB27" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ27" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA27" s="29" t="s">
+      <c r="AK27" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>197</v>
       </c>
@@ -6026,23 +6227,27 @@
       <c r="T28" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="22" t="s">
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="AA28" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y28" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z28" s="22" t="s">
+      <c r="AB28" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ28" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA28" s="28" t="s">
+      <c r="AK28" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>197</v>
       </c>
@@ -6085,29 +6290,33 @@
       <c r="N29" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="24" t="s">
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="AA29" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y29" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z29" s="24" t="s">
+      <c r="AB29" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ29" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA29" s="29" t="s">
+      <c r="AK29" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>197</v>
       </c>
@@ -6150,29 +6359,33 @@
       <c r="N30" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="22" t="s">
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="AA30" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y30" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z30" s="22" t="s">
+      <c r="AB30" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ30" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA30" s="28" t="s">
+      <c r="AK30" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>197</v>
       </c>
@@ -6227,23 +6440,27 @@
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="24" t="s">
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="AA31" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y31" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z31" s="24" t="s">
+      <c r="AB31" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ31" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA31" s="29" t="s">
+      <c r="AK31" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>197</v>
       </c>
@@ -6286,29 +6503,33 @@
       <c r="N32" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="22" t="s">
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="AA32" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="Y32" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z32" s="22" t="s">
+      <c r="AB32" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ32" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="AA32" s="28" t="s">
+      <c r="AK32" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>204</v>
       </c>
@@ -6351,29 +6572,33 @@
       <c r="N33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="24" t="s">
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="AA33" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y33" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z33" s="24" t="s">
+      <c r="AB33" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ33" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA33" s="29" t="s">
+      <c r="AK33" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>204</v>
       </c>
@@ -6416,29 +6641,33 @@
       <c r="N34" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="22" t="s">
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="AA34" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y34" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z34" s="22" t="s">
+      <c r="AB34" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ34" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA34" s="28" t="s">
+      <c r="AK34" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>197</v>
       </c>
@@ -6481,29 +6710,33 @@
       <c r="N35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="24" t="s">
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="AA35" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y35" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z35" s="24" t="s">
+      <c r="AB35" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ35" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA35" s="29" t="s">
+      <c r="AK35" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>204</v>
       </c>
@@ -6546,29 +6779,33 @@
       <c r="N36" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="22" t="s">
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="AA36" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y36" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z36" s="22" t="s">
+      <c r="AB36" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ36" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA36" s="28" t="s">
+      <c r="AK36" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>197</v>
       </c>
@@ -6620,26 +6857,30 @@
       <c r="Q37" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="24" t="s">
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="AA37" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y37" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z37" s="24" t="s">
+      <c r="AB37" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ37" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA37" s="29" t="s">
+      <c r="AK37" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>197</v>
       </c>
@@ -6673,29 +6914,33 @@
       <c r="K38" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="22" t="s">
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="AA38" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y38" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z38" s="22" t="s">
+      <c r="AB38" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ38" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="AA38" s="28" t="s">
+      <c r="AK38" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>197</v>
       </c>
@@ -6738,29 +6983,33 @@
       <c r="N39" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="24" t="s">
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="AA39" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="Y39" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z39" s="24" t="s">
+      <c r="AB39" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ39" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="AA39" s="29" t="s">
+      <c r="AK39" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>197</v>
       </c>
@@ -6785,29 +7034,33 @@
       <c r="H40" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="22" t="s">
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="AA40" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y40" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z40" s="22" t="s">
+      <c r="AB40" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ40" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="AA40" s="28" t="s">
+      <c r="AK40" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>197</v>
       </c>
@@ -6850,29 +7103,33 @@
       <c r="N41" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="24" t="s">
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="AA41" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y41" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z41" s="24" t="s">
+      <c r="AB41" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ41" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA41" s="29" t="s">
+      <c r="AK41" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>197</v>
       </c>
@@ -6915,29 +7172,33 @@
       <c r="N42" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="22" t="s">
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="AA42" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y42" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z42" s="22" t="s">
+      <c r="AB42" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ42" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA42" s="28" t="s">
+      <c r="AK42" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>204</v>
       </c>
@@ -6980,29 +7241,33 @@
       <c r="N43" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="24" t="s">
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="AA43" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y43" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z43" s="24" t="s">
+      <c r="AB43" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ43" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA43" s="29" t="s">
+      <c r="AK43" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>204</v>
       </c>
@@ -7045,29 +7310,33 @@
       <c r="N44" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="22" t="s">
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="AA44" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="Y44" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z44" s="22" t="s">
+      <c r="AB44" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ44" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="AA44" s="28" t="s">
+      <c r="AK44" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>197</v>
       </c>
@@ -7110,29 +7379,33 @@
       <c r="N45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="24" t="s">
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="AA45" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y45" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z45" s="24" t="s">
+      <c r="AB45" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ45" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA45" s="29" t="s">
+      <c r="AK45" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>197</v>
       </c>
@@ -7175,29 +7448,33 @@
       <c r="N46" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="22" t="s">
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="AA46" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y46" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z46" s="22" t="s">
+      <c r="AB46" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ46" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA46" s="28" t="s">
+      <c r="AK46" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>197</v>
       </c>
@@ -7240,29 +7517,33 @@
       <c r="N47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="24" t="s">
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="AA47" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y47" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z47" s="24" t="s">
+      <c r="AB47" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ47" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA47" s="29" t="s">
+      <c r="AK47" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>197</v>
       </c>
@@ -7305,29 +7586,33 @@
       <c r="N48" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="22" t="s">
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="AA48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y48" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z48" s="22" t="s">
+      <c r="AB48" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ48" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA48" s="28" t="s">
+      <c r="AK48" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>197</v>
       </c>
@@ -7370,29 +7655,33 @@
       <c r="N49" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="24" t="s">
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="AA49" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y49" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z49" s="24" t="s">
+      <c r="AB49" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ49" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA49" s="29" t="s">
+      <c r="AK49" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>197</v>
       </c>
@@ -7435,29 +7724,33 @@
       <c r="N50" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="22" t="s">
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="AA50" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y50" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z50" s="22" t="s">
+      <c r="AB50" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ50" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA50" s="28" t="s">
+      <c r="AK50" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>197</v>
       </c>
@@ -7500,29 +7793,33 @@
       <c r="N51" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="24" t="s">
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="AA51" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y51" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z51" s="24" t="s">
+      <c r="AB51" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ51" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA51" s="29" t="s">
+      <c r="AK51" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>197</v>
       </c>
@@ -7565,29 +7862,33 @@
       <c r="N52" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="22" t="s">
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
+      <c r="AA52" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y52" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z52" s="22" t="s">
+      <c r="AB52" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ52" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA52" s="28" t="s">
+      <c r="AK52" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>197</v>
       </c>
@@ -7630,29 +7931,33 @@
       <c r="N53" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="24" t="s">
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
+      <c r="W53" s="26"/>
+      <c r="AA53" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y53" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z53" s="24" t="s">
+      <c r="AB53" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ53" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA53" s="29" t="s">
+      <c r="AK53" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>204</v>
       </c>
@@ -7695,29 +8000,33 @@
       <c r="N54" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="22" t="s">
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="26"/>
+      <c r="W54" s="26"/>
+      <c r="AA54" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y54" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z54" s="22" t="s">
+      <c r="AB54" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ54" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA54" s="28" t="s">
+      <c r="AK54" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>204</v>
       </c>
@@ -7760,29 +8069,33 @@
       <c r="N55" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="24" t="s">
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="26"/>
+      <c r="AA55" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y55" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z55" s="24" t="s">
+      <c r="AB55" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ55" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA55" s="29" t="s">
+      <c r="AK55" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>204</v>
       </c>
@@ -7834,26 +8147,30 @@
       <c r="Q56" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="22" t="s">
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="AA56" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y56" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z56" s="22" t="s">
+      <c r="AB56" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ56" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA56" s="28" t="s">
+      <c r="AK56" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>204</v>
       </c>
@@ -7896,29 +8213,33 @@
       <c r="N57" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="24" t="s">
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="26"/>
+      <c r="AA57" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y57" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z57" s="24" t="s">
+      <c r="AB57" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ57" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AA57" s="29" t="s">
+      <c r="AK57" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>204</v>
       </c>
@@ -7961,29 +8282,33 @@
       <c r="N58" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="22" t="s">
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="AA58" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y58" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z58" s="22" t="s">
+      <c r="AB58" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ58" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA58" s="28" t="s">
+      <c r="AK58" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>204</v>
       </c>
@@ -8026,29 +8351,33 @@
       <c r="N59" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="24" t="s">
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="26"/>
+      <c r="AA59" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y59" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z59" s="24" t="s">
+      <c r="AB59" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ59" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="AA59" s="29" t="s">
+      <c r="AK59" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>204</v>
       </c>
@@ -8091,29 +8420,33 @@
       <c r="N60" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="22" t="s">
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="26"/>
+      <c r="AA60" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y60" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z60" s="22" t="s">
+      <c r="AB60" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ60" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA60" s="28" t="s">
+      <c r="AK60" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>204</v>
       </c>
@@ -8156,29 +8489,33 @@
       <c r="N61" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="24" t="s">
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="26"/>
+      <c r="W61" s="26"/>
+      <c r="AA61" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="Y61" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z61" s="24" t="s">
+      <c r="AB61" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI61">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ61" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="AA61" s="29" t="s">
+      <c r="AK61" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>204</v>
       </c>
@@ -8221,29 +8558,33 @@
       <c r="N62" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="22" t="s">
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="26"/>
+      <c r="AA62" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y62" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z62" s="22" t="s">
+      <c r="AB62" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ62" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA62" s="28" t="s">
+      <c r="AK62" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>204</v>
       </c>
@@ -8286,29 +8627,33 @@
       <c r="N63" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="24" t="s">
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+      <c r="V63" s="26"/>
+      <c r="W63" s="26"/>
+      <c r="AA63" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y63" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z63" s="24" t="s">
+      <c r="AB63" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ63" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA63" s="29" t="s">
+      <c r="AK63" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>204</v>
       </c>
@@ -8351,29 +8696,33 @@
       <c r="N64" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="22" t="s">
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
+      <c r="U64" s="26"/>
+      <c r="V64" s="26"/>
+      <c r="W64" s="26"/>
+      <c r="AA64" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y64" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z64" s="22" t="s">
+      <c r="AB64" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ64" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA64" s="28" t="s">
+      <c r="AK64" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>204</v>
       </c>
@@ -8416,29 +8765,33 @@
       <c r="N65" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="24" t="s">
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="26"/>
+      <c r="V65" s="26"/>
+      <c r="W65" s="26"/>
+      <c r="AA65" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y65" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z65" s="24" t="s">
+      <c r="AB65" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ65" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA65" s="29" t="s">
+      <c r="AK65" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>204</v>
       </c>
@@ -8481,29 +8834,33 @@
       <c r="N66" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="22" t="s">
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="26"/>
+      <c r="W66" s="26"/>
+      <c r="AA66" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y66" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z66" s="22" t="s">
+      <c r="AB66" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ66" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA66" s="28" t="s">
+      <c r="AK66" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>204</v>
       </c>
@@ -8546,29 +8903,33 @@
       <c r="N67" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="24" t="s">
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
+      <c r="U67" s="26"/>
+      <c r="V67" s="26"/>
+      <c r="W67" s="26"/>
+      <c r="AA67" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y67" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z67" s="24" t="s">
+      <c r="AB67" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI67">
+        <f t="shared" ref="AI67:AI111" si="1">SUM(AB67,AD67,AF67,AH67)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ67" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA67" s="29" t="s">
+      <c r="AK67" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>204</v>
       </c>
@@ -8611,29 +8972,33 @@
       <c r="N68" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="22" t="s">
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+      <c r="V68" s="26"/>
+      <c r="W68" s="26"/>
+      <c r="AA68" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y68" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z68" s="22" t="s">
+      <c r="AB68" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ68" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="28" t="s">
+      <c r="AK68" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>204</v>
       </c>
@@ -8676,29 +9041,33 @@
       <c r="N69" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="27"/>
-      <c r="W69" s="27"/>
-      <c r="X69" s="24" t="s">
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="26"/>
+      <c r="W69" s="26"/>
+      <c r="AA69" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y69" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z69" s="24" t="s">
+      <c r="AB69" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI69">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ69" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA69" s="29" t="s">
+      <c r="AK69" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>204</v>
       </c>
@@ -8741,29 +9110,33 @@
       <c r="N70" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="27"/>
-      <c r="W70" s="27"/>
-      <c r="X70" s="22" t="s">
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="26"/>
+      <c r="V70" s="26"/>
+      <c r="W70" s="26"/>
+      <c r="AA70" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y70" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z70" s="22" t="s">
+      <c r="AB70" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI70">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ70" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA70" s="28" t="s">
+      <c r="AK70" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>204</v>
       </c>
@@ -8806,29 +9179,33 @@
       <c r="N71" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="24" t="s">
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="26"/>
+      <c r="V71" s="26"/>
+      <c r="W71" s="26"/>
+      <c r="AA71" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y71" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z71" s="24" t="s">
+      <c r="AB71" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ71" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA71" s="29" t="s">
+      <c r="AK71" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>204</v>
       </c>
@@ -8871,29 +9248,33 @@
       <c r="N72" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="22" t="s">
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="26"/>
+      <c r="V72" s="26"/>
+      <c r="W72" s="26"/>
+      <c r="AA72" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y72" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z72" s="22" t="s">
+      <c r="AB72" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI72">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ72" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA72" s="28" t="s">
+      <c r="AK72" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>204</v>
       </c>
@@ -8936,29 +9317,33 @@
       <c r="N73" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27"/>
-      <c r="T73" s="27"/>
-      <c r="U73" s="27"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="27"/>
-      <c r="X73" s="24" t="s">
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="26"/>
+      <c r="V73" s="26"/>
+      <c r="W73" s="26"/>
+      <c r="AA73" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="Y73" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z73" s="24" t="s">
+      <c r="AB73" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI73">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ73" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="AA73" s="29" t="s">
+      <c r="AK73" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>204</v>
       </c>
@@ -9001,29 +9386,33 @@
       <c r="N74" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
-      <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
-      <c r="V74" s="27"/>
-      <c r="W74" s="27"/>
-      <c r="X74" s="22" t="s">
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="26"/>
+      <c r="U74" s="26"/>
+      <c r="V74" s="26"/>
+      <c r="W74" s="26"/>
+      <c r="AA74" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="Y74" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z74" s="22" t="s">
+      <c r="AB74" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI74">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ74" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="AA74" s="28" t="s">
+      <c r="AK74" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>204</v>
       </c>
@@ -9066,29 +9455,33 @@
       <c r="N75" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="27"/>
-      <c r="S75" s="27"/>
-      <c r="T75" s="27"/>
-      <c r="U75" s="27"/>
-      <c r="V75" s="27"/>
-      <c r="W75" s="27"/>
-      <c r="X75" s="24" t="s">
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="26"/>
+      <c r="W75" s="26"/>
+      <c r="AA75" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y75" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z75" s="24" t="s">
+      <c r="AB75" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI75">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ75" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA75" s="29" t="s">
+      <c r="AK75" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>204</v>
       </c>
@@ -9131,29 +9524,33 @@
       <c r="N76" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="27"/>
-      <c r="T76" s="27"/>
-      <c r="U76" s="27"/>
-      <c r="V76" s="27"/>
-      <c r="W76" s="27"/>
-      <c r="X76" s="22" t="s">
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="26"/>
+      <c r="U76" s="26"/>
+      <c r="V76" s="26"/>
+      <c r="W76" s="26"/>
+      <c r="AA76" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y76" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z76" s="22" t="s">
+      <c r="AB76" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI76">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ76" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA76" s="28" t="s">
+      <c r="AK76" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>204</v>
       </c>
@@ -9196,29 +9593,33 @@
       <c r="N77" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="27"/>
-      <c r="X77" s="24" t="s">
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+      <c r="V77" s="26"/>
+      <c r="W77" s="26"/>
+      <c r="AA77" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y77" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z77" s="24" t="s">
+      <c r="AB77" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI77">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ77" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA77" s="29" t="s">
+      <c r="AK77" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>204</v>
       </c>
@@ -9261,29 +9662,33 @@
       <c r="N78" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="27"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="27"/>
-      <c r="X78" s="22" t="s">
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="26"/>
+      <c r="U78" s="26"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="26"/>
+      <c r="AA78" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y78" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z78" s="22" t="s">
+      <c r="AB78" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI78">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ78" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA78" s="28" t="s">
+      <c r="AK78" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>204</v>
       </c>
@@ -9326,29 +9731,33 @@
       <c r="N79" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="27"/>
-      <c r="S79" s="27"/>
-      <c r="T79" s="27"/>
-      <c r="U79" s="27"/>
-      <c r="V79" s="27"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="24" t="s">
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="26"/>
+      <c r="U79" s="26"/>
+      <c r="V79" s="26"/>
+      <c r="W79" s="26"/>
+      <c r="AA79" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y79" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z79" s="24" t="s">
+      <c r="AB79" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI79">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ79" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA79" s="29" t="s">
+      <c r="AK79" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>197</v>
       </c>
@@ -9391,29 +9800,33 @@
       <c r="N80" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="27"/>
-      <c r="U80" s="27"/>
-      <c r="V80" s="27"/>
-      <c r="W80" s="27"/>
-      <c r="X80" s="22" t="s">
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="26"/>
+      <c r="U80" s="26"/>
+      <c r="V80" s="26"/>
+      <c r="W80" s="26"/>
+      <c r="AA80" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y80" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z80" s="22" t="s">
+      <c r="AB80" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI80">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ80" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA80" s="28" t="s">
+      <c r="AK80" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>204</v>
       </c>
@@ -9456,29 +9869,33 @@
       <c r="N81" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="24" t="s">
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="26"/>
+      <c r="T81" s="26"/>
+      <c r="U81" s="26"/>
+      <c r="V81" s="26"/>
+      <c r="W81" s="26"/>
+      <c r="AA81" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y81" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z81" s="24" t="s">
+      <c r="AB81" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI81">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ81" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA81" s="29" t="s">
+      <c r="AK81" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>204</v>
       </c>
@@ -9521,29 +9938,33 @@
       <c r="N82" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="22" t="s">
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26"/>
+      <c r="T82" s="26"/>
+      <c r="U82" s="26"/>
+      <c r="V82" s="26"/>
+      <c r="W82" s="26"/>
+      <c r="AA82" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y82" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z82" s="22" t="s">
+      <c r="AB82" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI82">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ82" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA82" s="28" t="s">
+      <c r="AK82" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>204</v>
       </c>
@@ -9586,29 +10007,33 @@
       <c r="N83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="27"/>
-      <c r="X83" s="24" t="s">
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="26"/>
+      <c r="U83" s="26"/>
+      <c r="V83" s="26"/>
+      <c r="W83" s="26"/>
+      <c r="AA83" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y83" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z83" s="24" t="s">
+      <c r="AB83" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI83">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ83" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA83" s="29" t="s">
+      <c r="AK83" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>204</v>
       </c>
@@ -9651,29 +10076,33 @@
       <c r="N84" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="22" t="s">
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26"/>
+      <c r="S84" s="26"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="26"/>
+      <c r="V84" s="26"/>
+      <c r="W84" s="26"/>
+      <c r="AA84" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y84" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z84" s="22" t="s">
+      <c r="AB84" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI84">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ84" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA84" s="28" t="s">
+      <c r="AK84" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>197</v>
       </c>
@@ -9716,29 +10145,33 @@
       <c r="N85" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="27"/>
-      <c r="T85" s="27"/>
-      <c r="U85" s="27"/>
-      <c r="V85" s="27"/>
-      <c r="W85" s="27"/>
-      <c r="X85" s="24" t="s">
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="26"/>
+      <c r="U85" s="26"/>
+      <c r="V85" s="26"/>
+      <c r="W85" s="26"/>
+      <c r="AA85" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y85" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z85" s="24" t="s">
+      <c r="AB85" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI85">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ85" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA85" s="29" t="s">
+      <c r="AK85" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>204</v>
       </c>
@@ -9781,29 +10214,33 @@
       <c r="N86" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="22" t="s">
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="26"/>
+      <c r="U86" s="26"/>
+      <c r="V86" s="26"/>
+      <c r="W86" s="26"/>
+      <c r="AA86" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y86" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z86" s="22" t="s">
+      <c r="AB86" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI86">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ86" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA86" s="28" t="s">
+      <c r="AK86" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>197</v>
       </c>
@@ -9846,29 +10283,33 @@
       <c r="N87" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="24" t="s">
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="26"/>
+      <c r="T87" s="26"/>
+      <c r="U87" s="26"/>
+      <c r="V87" s="26"/>
+      <c r="W87" s="26"/>
+      <c r="AA87" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y87" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z87" s="24" t="s">
+      <c r="AB87" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI87">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ87" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA87" s="29" t="s">
+      <c r="AK87" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>197</v>
       </c>
@@ -9911,29 +10352,33 @@
       <c r="N88" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="22" t="s">
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="26"/>
+      <c r="T88" s="26"/>
+      <c r="U88" s="26"/>
+      <c r="V88" s="26"/>
+      <c r="W88" s="26"/>
+      <c r="AA88" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y88" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z88" s="22" t="s">
+      <c r="AB88" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI88">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ88" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA88" s="28" t="s">
+      <c r="AK88" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>197</v>
       </c>
@@ -9976,29 +10421,33 @@
       <c r="N89" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="24" t="s">
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="26"/>
+      <c r="V89" s="26"/>
+      <c r="W89" s="26"/>
+      <c r="AA89" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y89" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z89" s="24" t="s">
+      <c r="AB89" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI89">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ89" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA89" s="29" t="s">
+      <c r="AK89" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>204</v>
       </c>
@@ -10041,29 +10490,33 @@
       <c r="N90" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
-      <c r="R90" s="27"/>
-      <c r="S90" s="27"/>
-      <c r="T90" s="27"/>
-      <c r="U90" s="27"/>
-      <c r="V90" s="27"/>
-      <c r="W90" s="27"/>
-      <c r="X90" s="22" t="s">
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="26"/>
+      <c r="U90" s="26"/>
+      <c r="V90" s="26"/>
+      <c r="W90" s="26"/>
+      <c r="AA90" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y90" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z90" s="22" t="s">
+      <c r="AB90" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI90">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ90" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="AA90" s="28" t="s">
+      <c r="AK90" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>204</v>
       </c>
@@ -10106,29 +10559,33 @@
       <c r="N91" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
-      <c r="T91" s="27"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="24" t="s">
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="26"/>
+      <c r="U91" s="26"/>
+      <c r="V91" s="26"/>
+      <c r="W91" s="26"/>
+      <c r="AA91" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y91" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z91" s="24" t="s">
+      <c r="AB91" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI91">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ91" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA91" s="29" t="s">
+      <c r="AK91" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>204</v>
       </c>
@@ -10171,29 +10628,33 @@
       <c r="N92" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="27"/>
-      <c r="W92" s="27"/>
-      <c r="X92" s="22" t="s">
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="AA92" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y92" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z92" s="22" t="s">
+      <c r="AB92" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI92">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ92" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA92" s="28" t="s">
+      <c r="AK92" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>204</v>
       </c>
@@ -10236,29 +10697,33 @@
       <c r="N93" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
-      <c r="T93" s="27"/>
-      <c r="U93" s="27"/>
-      <c r="V93" s="27"/>
-      <c r="W93" s="27"/>
-      <c r="X93" s="24" t="s">
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="26"/>
+      <c r="W93" s="26"/>
+      <c r="AA93" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y93" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z93" s="24" t="s">
+      <c r="AB93" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI93">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ93" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="AA93" s="29" t="s">
+      <c r="AK93" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>197</v>
       </c>
@@ -10301,29 +10766,33 @@
       <c r="N94" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O94" s="27"/>
-      <c r="P94" s="27"/>
-      <c r="Q94" s="27"/>
-      <c r="R94" s="27"/>
-      <c r="S94" s="27"/>
-      <c r="T94" s="27"/>
-      <c r="U94" s="27"/>
-      <c r="V94" s="27"/>
-      <c r="W94" s="27"/>
-      <c r="X94" s="22" t="s">
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="26"/>
+      <c r="U94" s="26"/>
+      <c r="V94" s="26"/>
+      <c r="W94" s="26"/>
+      <c r="AA94" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y94" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z94" s="22" t="s">
+      <c r="AB94" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI94">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ94" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA94" s="28" t="s">
+      <c r="AK94" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>204</v>
       </c>
@@ -10366,29 +10835,33 @@
       <c r="N95" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O95" s="27"/>
-      <c r="P95" s="27"/>
-      <c r="Q95" s="27"/>
-      <c r="R95" s="27"/>
-      <c r="S95" s="27"/>
-      <c r="T95" s="27"/>
-      <c r="U95" s="27"/>
-      <c r="V95" s="27"/>
-      <c r="W95" s="27"/>
-      <c r="X95" s="24" t="s">
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="26"/>
+      <c r="S95" s="26"/>
+      <c r="T95" s="26"/>
+      <c r="U95" s="26"/>
+      <c r="V95" s="26"/>
+      <c r="W95" s="26"/>
+      <c r="AA95" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="Y95" s="24">
+      <c r="AB95" s="24">
         <v>72</v>
       </c>
-      <c r="Z95" s="24" t="s">
+      <c r="AI95">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="AJ95" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AA95" s="29" t="s">
+      <c r="AK95" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>204</v>
       </c>
@@ -10431,29 +10904,33 @@
       <c r="N96" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
-      <c r="V96" s="27"/>
-      <c r="W96" s="27"/>
-      <c r="X96" s="22" t="s">
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="26"/>
+      <c r="U96" s="26"/>
+      <c r="V96" s="26"/>
+      <c r="W96" s="26"/>
+      <c r="AA96" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y96" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z96" s="22" t="s">
+      <c r="AB96" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI96">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ96" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA96" s="28" t="s">
+      <c r="AK96" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>197</v>
       </c>
@@ -10496,29 +10973,33 @@
       <c r="N97" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O97" s="27"/>
-      <c r="P97" s="27"/>
-      <c r="Q97" s="27"/>
-      <c r="R97" s="27"/>
-      <c r="S97" s="27"/>
-      <c r="T97" s="27"/>
-      <c r="U97" s="27"/>
-      <c r="V97" s="27"/>
-      <c r="W97" s="27"/>
-      <c r="X97" s="24" t="s">
+      <c r="O97" s="26"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="26"/>
+      <c r="T97" s="26"/>
+      <c r="U97" s="26"/>
+      <c r="V97" s="26"/>
+      <c r="W97" s="26"/>
+      <c r="AA97" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y97" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z97" s="24" t="s">
+      <c r="AB97" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI97">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ97" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA97" s="29" t="s">
+      <c r="AK97" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>204</v>
       </c>
@@ -10561,29 +11042,33 @@
       <c r="N98" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O98" s="27"/>
-      <c r="P98" s="27"/>
-      <c r="Q98" s="27"/>
-      <c r="R98" s="27"/>
-      <c r="S98" s="27"/>
-      <c r="T98" s="27"/>
-      <c r="U98" s="27"/>
-      <c r="V98" s="27"/>
-      <c r="W98" s="27"/>
-      <c r="X98" s="22" t="s">
+      <c r="O98" s="26"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
+      <c r="S98" s="26"/>
+      <c r="T98" s="26"/>
+      <c r="U98" s="26"/>
+      <c r="V98" s="26"/>
+      <c r="W98" s="26"/>
+      <c r="AA98" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y98" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z98" s="22" t="s">
+      <c r="AB98" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI98">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ98" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA98" s="28" t="s">
+      <c r="AK98" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>197</v>
       </c>
@@ -10626,29 +11111,33 @@
       <c r="N99" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O99" s="27"/>
-      <c r="P99" s="27"/>
-      <c r="Q99" s="27"/>
-      <c r="R99" s="27"/>
-      <c r="S99" s="27"/>
-      <c r="T99" s="27"/>
-      <c r="U99" s="27"/>
-      <c r="V99" s="27"/>
-      <c r="W99" s="27"/>
-      <c r="X99" s="24" t="s">
+      <c r="O99" s="26"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26"/>
+      <c r="T99" s="26"/>
+      <c r="U99" s="26"/>
+      <c r="V99" s="26"/>
+      <c r="W99" s="26"/>
+      <c r="AA99" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y99" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z99" s="24" t="s">
+      <c r="AB99" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI99">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ99" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA99" s="29" t="s">
+      <c r="AK99" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>204</v>
       </c>
@@ -10691,29 +11180,33 @@
       <c r="N100" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O100" s="27"/>
-      <c r="P100" s="27"/>
-      <c r="Q100" s="27"/>
-      <c r="R100" s="27"/>
-      <c r="S100" s="27"/>
-      <c r="T100" s="27"/>
-      <c r="U100" s="27"/>
-      <c r="V100" s="27"/>
-      <c r="W100" s="27"/>
-      <c r="X100" s="22" t="s">
+      <c r="O100" s="26"/>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+      <c r="S100" s="26"/>
+      <c r="T100" s="26"/>
+      <c r="U100" s="26"/>
+      <c r="V100" s="26"/>
+      <c r="W100" s="26"/>
+      <c r="AA100" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y100" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z100" s="22" t="s">
+      <c r="AB100" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI100">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ100" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA100" s="28" t="s">
+      <c r="AK100" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>204</v>
       </c>
@@ -10756,29 +11249,33 @@
       <c r="N101" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O101" s="27"/>
-      <c r="P101" s="27"/>
-      <c r="Q101" s="27"/>
-      <c r="R101" s="27"/>
-      <c r="S101" s="27"/>
-      <c r="T101" s="27"/>
-      <c r="U101" s="27"/>
-      <c r="V101" s="27"/>
-      <c r="W101" s="27"/>
-      <c r="X101" s="24" t="s">
+      <c r="O101" s="26"/>
+      <c r="P101" s="26"/>
+      <c r="Q101" s="26"/>
+      <c r="R101" s="26"/>
+      <c r="S101" s="26"/>
+      <c r="T101" s="26"/>
+      <c r="U101" s="26"/>
+      <c r="V101" s="26"/>
+      <c r="W101" s="26"/>
+      <c r="AA101" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y101" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z101" s="24" t="s">
+      <c r="AB101" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI101">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ101" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA101" s="29" t="s">
+      <c r="AK101" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>204</v>
       </c>
@@ -10821,29 +11318,33 @@
       <c r="N102" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O102" s="27"/>
-      <c r="P102" s="27"/>
-      <c r="Q102" s="27"/>
-      <c r="R102" s="27"/>
-      <c r="S102" s="27"/>
-      <c r="T102" s="27"/>
-      <c r="U102" s="27"/>
-      <c r="V102" s="27"/>
-      <c r="W102" s="27"/>
-      <c r="X102" s="22" t="s">
+      <c r="O102" s="26"/>
+      <c r="P102" s="26"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26"/>
+      <c r="S102" s="26"/>
+      <c r="T102" s="26"/>
+      <c r="U102" s="26"/>
+      <c r="V102" s="26"/>
+      <c r="W102" s="26"/>
+      <c r="AA102" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y102" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z102" s="22" t="s">
+      <c r="AB102" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI102">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ102" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA102" s="28" t="s">
+      <c r="AK102" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>204</v>
       </c>
@@ -10886,29 +11387,33 @@
       <c r="N103" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O103" s="27"/>
-      <c r="P103" s="27"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="27"/>
-      <c r="S103" s="27"/>
-      <c r="T103" s="27"/>
-      <c r="U103" s="27"/>
-      <c r="V103" s="27"/>
-      <c r="W103" s="27"/>
-      <c r="X103" s="24" t="s">
+      <c r="O103" s="26"/>
+      <c r="P103" s="26"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="26"/>
+      <c r="S103" s="26"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="26"/>
+      <c r="V103" s="26"/>
+      <c r="W103" s="26"/>
+      <c r="AA103" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y103" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z103" s="24" t="s">
+      <c r="AB103" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI103">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ103" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA103" s="29" t="s">
+      <c r="AK103" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>204</v>
       </c>
@@ -10951,29 +11456,33 @@
       <c r="N104" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O104" s="27"/>
-      <c r="P104" s="27"/>
-      <c r="Q104" s="27"/>
-      <c r="R104" s="27"/>
-      <c r="S104" s="27"/>
-      <c r="T104" s="27"/>
-      <c r="U104" s="27"/>
-      <c r="V104" s="27"/>
-      <c r="W104" s="27"/>
-      <c r="X104" s="22" t="s">
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26"/>
+      <c r="S104" s="26"/>
+      <c r="T104" s="26"/>
+      <c r="U104" s="26"/>
+      <c r="V104" s="26"/>
+      <c r="W104" s="26"/>
+      <c r="AA104" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y104" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z104" s="22" t="s">
+      <c r="AB104" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI104">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ104" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA104" s="28" t="s">
+      <c r="AK104" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>204</v>
       </c>
@@ -11016,29 +11525,33 @@
       <c r="N105" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
-      <c r="Q105" s="27"/>
-      <c r="R105" s="27"/>
-      <c r="S105" s="27"/>
-      <c r="T105" s="27"/>
-      <c r="U105" s="27"/>
-      <c r="V105" s="27"/>
-      <c r="W105" s="27"/>
-      <c r="X105" s="24" t="s">
+      <c r="O105" s="26"/>
+      <c r="P105" s="26"/>
+      <c r="Q105" s="26"/>
+      <c r="R105" s="26"/>
+      <c r="S105" s="26"/>
+      <c r="T105" s="26"/>
+      <c r="U105" s="26"/>
+      <c r="V105" s="26"/>
+      <c r="W105" s="26"/>
+      <c r="AA105" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y105" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z105" s="24" t="s">
+      <c r="AB105" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI105">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ105" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA105" s="29" t="s">
+      <c r="AK105" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>204</v>
       </c>
@@ -11081,29 +11594,33 @@
       <c r="N106" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O106" s="27"/>
-      <c r="P106" s="27"/>
-      <c r="Q106" s="27"/>
-      <c r="R106" s="27"/>
-      <c r="S106" s="27"/>
-      <c r="T106" s="27"/>
-      <c r="U106" s="27"/>
-      <c r="V106" s="27"/>
-      <c r="W106" s="27"/>
-      <c r="X106" s="22" t="s">
+      <c r="O106" s="26"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="26"/>
+      <c r="R106" s="26"/>
+      <c r="S106" s="26"/>
+      <c r="T106" s="26"/>
+      <c r="U106" s="26"/>
+      <c r="V106" s="26"/>
+      <c r="W106" s="26"/>
+      <c r="AA106" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y106" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z106" s="22" t="s">
+      <c r="AB106" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI106">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ106" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA106" s="28" t="s">
+      <c r="AK106" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>204</v>
       </c>
@@ -11146,29 +11663,33 @@
       <c r="N107" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O107" s="27"/>
-      <c r="P107" s="27"/>
-      <c r="Q107" s="27"/>
-      <c r="R107" s="27"/>
-      <c r="S107" s="27"/>
-      <c r="T107" s="27"/>
-      <c r="U107" s="27"/>
-      <c r="V107" s="27"/>
-      <c r="W107" s="27"/>
-      <c r="X107" s="24" t="s">
+      <c r="O107" s="26"/>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="26"/>
+      <c r="V107" s="26"/>
+      <c r="W107" s="26"/>
+      <c r="AA107" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y107" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z107" s="24" t="s">
+      <c r="AB107" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI107">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ107" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA107" s="29" t="s">
+      <c r="AK107" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>204</v>
       </c>
@@ -11211,29 +11732,33 @@
       <c r="N108" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
-      <c r="R108" s="27"/>
-      <c r="S108" s="27"/>
-      <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="27"/>
-      <c r="W108" s="27"/>
-      <c r="X108" s="22" t="s">
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+      <c r="U108" s="26"/>
+      <c r="V108" s="26"/>
+      <c r="W108" s="26"/>
+      <c r="AA108" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y108" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z108" s="22" t="s">
+      <c r="AB108" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI108">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ108" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA108" s="28" t="s">
+      <c r="AK108" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>204</v>
       </c>
@@ -11276,29 +11801,33 @@
       <c r="N109" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O109" s="27"/>
-      <c r="P109" s="27"/>
-      <c r="Q109" s="27"/>
-      <c r="R109" s="27"/>
-      <c r="S109" s="27"/>
-      <c r="T109" s="27"/>
-      <c r="U109" s="27"/>
-      <c r="V109" s="27"/>
-      <c r="W109" s="27"/>
-      <c r="X109" s="24" t="s">
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
+      <c r="Q109" s="26"/>
+      <c r="R109" s="26"/>
+      <c r="S109" s="26"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="26"/>
+      <c r="V109" s="26"/>
+      <c r="W109" s="26"/>
+      <c r="AA109" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="Y109" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z109" s="24" t="s">
+      <c r="AB109" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI109">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ109" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AA109" s="29" t="s">
+      <c r="AK109" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>204</v>
       </c>
@@ -11341,29 +11870,33 @@
       <c r="N110" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O110" s="27"/>
-      <c r="P110" s="27"/>
-      <c r="Q110" s="27"/>
-      <c r="R110" s="27"/>
-      <c r="S110" s="27"/>
-      <c r="T110" s="27"/>
-      <c r="U110" s="27"/>
-      <c r="V110" s="27"/>
-      <c r="W110" s="27"/>
-      <c r="X110" s="22" t="s">
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="26"/>
+      <c r="R110" s="26"/>
+      <c r="S110" s="26"/>
+      <c r="T110" s="26"/>
+      <c r="U110" s="26"/>
+      <c r="V110" s="26"/>
+      <c r="W110" s="26"/>
+      <c r="AA110" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y110" s="22">
-        <v>24</v>
-      </c>
-      <c r="Z110" s="22" t="s">
+      <c r="AB110" s="22">
+        <v>24</v>
+      </c>
+      <c r="AI110">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ110" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AA110" s="28" t="s">
+      <c r="AK110" s="27" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
         <v>204</v>
       </c>
@@ -11406,25 +11939,29 @@
       <c r="N111" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O111" s="27"/>
-      <c r="P111" s="27"/>
-      <c r="Q111" s="27"/>
-      <c r="R111" s="27"/>
-      <c r="S111" s="27"/>
-      <c r="T111" s="27"/>
-      <c r="U111" s="27"/>
-      <c r="V111" s="27"/>
-      <c r="W111" s="27"/>
-      <c r="X111" s="24" t="s">
+      <c r="O111" s="26"/>
+      <c r="P111" s="26"/>
+      <c r="Q111" s="26"/>
+      <c r="R111" s="26"/>
+      <c r="S111" s="26"/>
+      <c r="T111" s="26"/>
+      <c r="U111" s="26"/>
+      <c r="V111" s="26"/>
+      <c r="W111" s="26"/>
+      <c r="AA111" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="Y111" s="24">
-        <v>24</v>
-      </c>
-      <c r="Z111" s="24" t="s">
+      <c r="AB111" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI111">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ111" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AA111" s="29" t="s">
+      <c r="AK111" s="28" t="s">
         <v>499</v>
       </c>
     </row>
@@ -14210,13 +14747,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>875</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>877</v>
       </c>
       <c r="D2" s="12">
@@ -14224,13 +14761,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>876</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>878</v>
       </c>
       <c r="D3" s="12">
@@ -14238,13 +14775,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>879</v>
       </c>
       <c r="D4" s="12">
@@ -14252,13 +14789,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>880</v>
       </c>
       <c r="D5" s="12">

--- a/Excels/DRC.xlsx
+++ b/Excels/DRC.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2876" uniqueCount="981">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2970,6 +2970,21 @@
   </si>
   <si>
     <t>Loan Amount (CDF)</t>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Next Reset Date</t>
   </si>
 </sst>
 </file>
@@ -3341,7 +3356,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4280,10 +4295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4726,6 +4741,29 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>976</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>977</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>980</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
